--- a/StructureDefinition-ext-R5-CompartmentDefinition.resource.xlsx
+++ b/StructureDefinition-ext-R5-CompartmentDefinition.resource.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="170">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -405,15 +405,6 @@
   <si>
     <t xml:space="preserve">code
 </t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>One of the resource types defined as part of this version of FHIR.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-resource-types-for-R4</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -907,8 +898,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.7421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1824,43 +1815,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>120</v>
@@ -1868,13 +1859,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1899,16 +1890,16 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1977,7 +1968,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2080,7 +2071,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2185,7 +2176,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2228,7 +2219,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2290,7 +2281,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>122</v>
@@ -2319,13 +2310,13 @@
         <v>87</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2375,7 +2366,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2387,7 +2378,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>120</v>
@@ -2395,13 +2386,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2426,14 +2417,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2502,7 +2493,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2605,7 +2596,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2710,7 +2701,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2753,7 +2744,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2815,7 +2806,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>122</v>
@@ -2844,10 +2835,10 @@
         <v>87</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2898,7 +2889,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2910,7 +2901,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>120</v>
@@ -2918,13 +2909,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2949,14 +2940,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3025,7 +3016,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3128,7 +3119,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3233,7 +3224,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3276,7 +3267,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3338,7 +3329,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>122</v>
@@ -3367,10 +3358,10 @@
         <v>114</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3421,7 +3412,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3433,7 +3424,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>120</v>
@@ -3441,13 +3432,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3472,14 +3463,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3548,7 +3539,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -3651,7 +3642,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -3756,7 +3747,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -3799,7 +3790,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3861,7 +3852,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>122</v>
@@ -3890,10 +3881,10 @@
         <v>114</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3944,7 +3935,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -3956,7 +3947,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>120</v>
@@ -4069,10 +4060,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4095,13 +4086,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4152,7 +4143,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4164,7 +4155,7 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>120</v>
